--- a/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/Projects/Treatment_Results.xlsx
+++ b/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/Projects/Treatment_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25904"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Author Drive (E. Ruiz)\Excel Statistics\Course Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgesoto/Desktop/Maven_Analytics/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BD6C6B83-38F3-49D5-B0D5-663FF3AA8458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A398DBA9-1E93-2F47-A63A-E34F870D5AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="20140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arthritis" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Arthritis!$A$1:$B$85</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="26">
   <si>
     <t>Treatment</t>
   </si>
@@ -44,13 +57,121 @@
   </si>
   <si>
     <t>Placebo</t>
+  </si>
+  <si>
+    <t>CLT TESTS</t>
+  </si>
+  <si>
+    <t>Is (1-p)*n&gt;5?:</t>
+  </si>
+  <si>
+    <t>SAMPLE DATA</t>
+  </si>
+  <si>
+    <t>POINT ESTIMATE</t>
+  </si>
+  <si>
+    <t>MARGIN OF ERROR</t>
+  </si>
+  <si>
+    <t>CONFIDENCE INTERVAL</t>
+  </si>
+  <si>
+    <t>Confidence Level:</t>
+  </si>
+  <si>
+    <t>Lower Limit:</t>
+  </si>
+  <si>
+    <t>Sample Size (n):</t>
+  </si>
+  <si>
+    <t>Alpha:</t>
+  </si>
+  <si>
+    <t>Upper Limit:</t>
+  </si>
+  <si>
+    <t>Alpha/2:</t>
+  </si>
+  <si>
+    <t>Standard Error:</t>
+  </si>
+  <si>
+    <t>Margin of Error:</t>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-p</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:  </t>
+    </r>
+  </si>
+  <si>
+    <t>p(Placed):</t>
+  </si>
+  <si>
+    <t>1-p:</t>
+  </si>
+  <si>
+    <t>Critical Value (Z):</t>
+  </si>
+  <si>
+    <t>Is p*n&gt;5?:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,8 +306,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,8 +510,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -488,8 +638,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -532,12 +727,47 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="13" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -577,6 +807,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -594,8 +825,130 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A291A7E-9001-BA68-44A4-BEFC19D3E69B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5461000" y="1930400"/>
+          <a:ext cx="6223000" cy="1765300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>QUESTION</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>Can you use a 99% confidence interval to see if the percentage of patients wiht "Marked" improvements is significantly higher for those that took the treatment (vs. the placebos)?</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CONCLUSION</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t>We can expect the treatment to be 10% - 60% more effective then the placebo, which is good news</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -883,24 +1236,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -908,79 +1271,225 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="8">
+        <f>E5-F5</f>
+        <v>0.34940442427680091</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="12">
+        <f>I3-L8</f>
+        <v>0.10148883731550898</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4">
+        <v>41</v>
+      </c>
+      <c r="F4" s="4">
+        <v>43</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="7">
+        <f>1-L3</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="13">
+        <f>I3+L8</f>
+        <v>0.59732001123809286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="8">
+        <f>COUNTIFS(A2:$A$85,E3,B2:$B$85,"Marked")/E4</f>
+        <v>0.51219512195121952</v>
+      </c>
+      <c r="F5" s="8">
+        <f>COUNTIFS($A2:B$85,F3,$B2:C$85,"Marked")/F4</f>
+        <v>0.16279069767441862</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="4">
+        <f>L4/2</f>
+        <v>5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="8">
+        <f>1-E5</f>
+        <v>0.48780487804878048</v>
+      </c>
+      <c r="F6" s="8">
+        <f>1-F5</f>
+        <v>0.83720930232558133</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="8">
+        <f>_xlfn.NORM.S.INV(1-L5)</f>
+        <v>2.5758293035488999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="K7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="8">
+        <f>SQRT(SUM(E5*E6/E4,F5*F6/F4))</f>
+        <v>9.6246900607785346E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="K8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="8">
+        <f>L7*L6</f>
+        <v>0.24791558696129193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4">
+        <f>E5*E4</f>
+        <v>21</v>
+      </c>
+      <c r="F9" s="4">
+        <f>F5*F4</f>
+        <v>7.0000000000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4">
+        <f>E6*E4</f>
+        <v>20</v>
+      </c>
+      <c r="F10" s="4">
+        <f>F6*F4</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -988,31 +1497,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1020,7 +1535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1028,7 +1543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1036,7 +1551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1044,7 +1559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1052,7 +1567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1060,7 +1575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1068,7 +1583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1076,7 +1591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -1084,7 +1599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1092,7 +1607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -1100,7 +1615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1108,7 +1623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1116,7 +1631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1124,7 +1639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -1132,7 +1647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -1140,7 +1655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1148,7 +1663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1156,7 +1671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1164,7 +1679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -1172,7 +1687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -1180,7 +1695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -1188,7 +1703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -1196,7 +1711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1204,7 +1719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -1212,7 +1727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -1220,7 +1735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -1228,7 +1743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -1236,7 +1751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1244,7 +1759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1252,7 +1767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -1260,7 +1775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -1268,7 +1783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -1276,7 +1791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -1284,7 +1799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -1292,7 +1807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -1300,7 +1815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -1308,7 +1823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -1316,7 +1831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -1324,7 +1839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -1332,7 +1847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -1340,7 +1855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -1348,7 +1863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -1356,7 +1871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -1364,7 +1879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -1372,7 +1887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -1380,7 +1895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -1388,7 +1903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -1396,7 +1911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -1404,7 +1919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -1412,7 +1927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -1420,7 +1935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -1428,7 +1943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -1436,7 +1951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -1444,7 +1959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -1452,7 +1967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -1460,7 +1975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -1468,7 +1983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -1476,7 +1991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -1484,7 +1999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -1492,7 +2007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -1500,7 +2015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -1508,7 +2023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -1516,7 +2031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -1524,7 +2039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -1532,7 +2047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -1540,7 +2055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -1548,7 +2063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -1556,7 +2071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -1564,7 +2079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -1572,7 +2087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -1581,6 +2096,15 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D8:F8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>